--- a/doc/ITUB4cg_3anos.xlsx
+++ b/doc/ITUB4cg_3anos.xlsx
@@ -248,6 +248,9 @@
           <c:tx>
             <c:v>Retornos da Ação</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -4763,6 +4766,9 @@
           <c:tx>
             <c:v>Retornos do Mercado</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>

--- a/doc/ITUB4cg_3anos.xlsx
+++ b/doc/ITUB4cg_3anos.xlsx
@@ -256,9 +256,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$749</c:f>
+              <c:f>Retornos!$D$2:$D$748</c:f>
               <c:strCache>
-                <c:ptCount val="748"/>
+                <c:ptCount val="747"/>
                 <c:pt idx="0">
                   <c:v>03/2024</c:v>
                 </c:pt>
@@ -2498,9 +2498,6 @@
                   <c:v>04/2021</c:v>
                 </c:pt>
                 <c:pt idx="746">
-                  <c:v>03/2021</c:v>
-                </c:pt>
-                <c:pt idx="747">
                   <c:v>03/2021</c:v>
                 </c:pt>
               </c:strCache>
@@ -2508,10 +2505,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$B$2:$B$749</c:f>
+              <c:f>Retornos!$B$2:$B$748</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="748"/>
+                <c:ptCount val="747"/>
                 <c:pt idx="0">
                   <c:v>0.03535811423390745</c:v>
                 </c:pt>
@@ -4752,9 +4749,6 @@
                 </c:pt>
                 <c:pt idx="746">
                   <c:v>0.03136531365313644</c:v>
-                </c:pt>
-                <c:pt idx="747">
-                  <c:v>0.01967799642218249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4774,9 +4768,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$749</c:f>
+              <c:f>Retornos!$D$2:$D$748</c:f>
               <c:strCache>
-                <c:ptCount val="748"/>
+                <c:ptCount val="747"/>
                 <c:pt idx="0">
                   <c:v>03/2024</c:v>
                 </c:pt>
@@ -7016,9 +7010,6 @@
                   <c:v>04/2021</c:v>
                 </c:pt>
                 <c:pt idx="746">
-                  <c:v>03/2021</c:v>
-                </c:pt>
-                <c:pt idx="747">
                   <c:v>03/2021</c:v>
                 </c:pt>
               </c:strCache>
@@ -7026,10 +7017,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$C$2:$C$749</c:f>
+              <c:f>Retornos!$C$2:$C$748</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="748"/>
+                <c:ptCount val="747"/>
                 <c:pt idx="0">
                   <c:v>0.003250033283473286</c:v>
                 </c:pt>
@@ -9270,9 +9261,6 @@
                 </c:pt>
                 <c:pt idx="746">
                   <c:v>-0.001848523748395392</c:v>
-                </c:pt>
-                <c:pt idx="747">
-                  <c:v>0.01239830530501917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9684,6 +9672,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
@@ -20181,6 +20172,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="4" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">

--- a/doc/ITUB4cg_3anos.xlsx
+++ b/doc/ITUB4cg_3anos.xlsx
@@ -9673,7 +9673,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -20173,7 +20175,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
